--- a/Aplikasi Skripsi/App/Flask/Data/output_Ganjar Pranowo.xlsx
+++ b/Aplikasi Skripsi/App/Flask/Data/output_Ganjar Pranowo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,711 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ganjar Pranowo for presiden 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Ma’ruf Amin melakukan kunjungan kerja di Jawa Tengah, Selasa (4/4/2023). Pada akhir kegiatan kunjungan di Jawa Tengah, Ma'ruf mengecek program penurunan angka kemiskinan ekstrem di provinsi yang dipimpin Gubernur Ganjar Pranowo.
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Ma’ruf Amin melakukan kunjungan kerja di Jawa Tengah, Selasa (4/4/2023). Pada akhir kegiatan kunjungan di Jateng, Ma'ruf mengecek program penurunan angka kemiskinan ekstrem di provinsi yang dipimpin Ganjar Pranowo.
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Ma’ruf Amin melakukan kunjungan kerja di Jawa Tengah, Selasa (4/4/2023). Pada akhir kegiatan kunjungan di Jateng, Ma'ruf mengecek program penurunan angka kemiskinan ekstrem di provinsi yang dipimpin Gubernur Ganjar Pranowo.
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Momen menhan Prabowo Subianto dan Gubernur Jateng Ganjar Pranowo saat mendampingi kegiatan Presiden Jokowi. capres2024 pemilu2024 dekade08 terusmajubersamaprabowo mendingparabowo
+Prabowo Selamanya
+Prabowo Lebih Baik
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menhan Prabowo Subianto dan Gubernur Jateng Ganjar Pranowo saat mendampingi kegiatan Presiden Jokowi. capres2024 pemilu2024 dekade08 terusmajubersamaprabowo mendingparabowo
+Prabowo Selamanya
+Prabowo Lebih Baik
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prabowo Subianto dan Ganjar Pranowo saat mendampingi kegiatan Presiden Jokowi. capres2024 pemilu2024 dekade08 terusmajubersamaprabowo mendingparabowo
+Prabowo Selamanya
+Prabowo Lebih Baik
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yg akan meminpin negara kita NKRI adalah bukan Anes dan bukan AHY juga bukan prabowo, 
+Yg jadi presiden negara kita adalah bapak Ganjar pranowo,,untuk keutuhan Kalimat NUSWANTORO,
+Dengan bangsa yg rukun tetap bertoleransi,,dan ttp Pancasila sebagai lambang negara kita,UUD 1945, </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kawal Ganjar Pranowo jadi presiden 30 juta relawan siap mengawal dari penjuru mata angin,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MIPOS merilis elektabilitas calon presiden usai piala dunia U-20 di Indonesia batal. Survei dilakukan pada 29 Maret-3 April 2023 dengan total 1.200 responden.
+Prabowo Subianto 33,6%
+Anies Baswedan 21,5%
+Ganjar Pranowo 16,8%
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gak ada gunanya koalisi besar,,kalau capresnya Prabowo Subianto,atau puan Maharani,, Karena keduanya bukan pilihan rakyat .. saat ini pilihan rakyat yang jadi presiden 2024, Ganjar Pranowo berpasangan TGB...</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEKALIPUN KAMI KECEWA TERHADAP GANJAR PRANOWO🇲🇨HARAM BAGI KAMI MEMILIH PRESIDEN RI DARI KAUM BANI KADRUN BIN TAI ONTA!!KAMI TETAP AKAN MEMILIH ORANG ASLI INDONESIA (PRIBUMI)!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rangkaian kunjungan kerja Wakil Presiden RI Ma’ruf Amin di Jawa Tengah, diakhiri dengan meninjau Mal Pelayanan Publik Kota Semarang, di Lantai 2 Terminal Mangkang. Ganjar Pranowo turut mendampingi selama kunjungan tersebut. 
+   </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ganjar Pranowo calon presiden RI 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSI telah memutuskan untuk mengikuti koalisi besar KIB dan KIR. Meski begitu, sejauh ini PSI tetap mendukung Ganjar Pranowo sebagai calon presiden 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  semoga pak Ganjar Pranowo menjadi presiden Indonesia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MIPOS juga memaparkan perolehan suara tokoh-tokoh nasional jika pemilihan presiden dilakukan hari ini. Hasilnya, nama Prabowo Subianto kokoh berada di peringkat pertama dengan 33,6%, disusul Anies Baswedan 21,5%, Ganjar Pranowo 16,8%, Ridwan Kamil 6,9%, dan Sandiaga Uno 4,5%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GANJAR PRANOWO FOR PRESIDEN RI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Ma’ruf Amin melakukan kunjungan kerja di Jawa Tengah. Pada akhir kegiatan kunjungan di Jateng, Ma'ruf mengecek program penurunan angka kemiskinan ekstrem di provinsi yang dipimpin Ganjar Pranowo.
+   </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pak anies memang bagus dan hebat untuk capres indonesia 2024 , untuk presiden tetap ganjar pranowo pribumi asli </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Masyarakat Madura menilai Pak Ganjar merupakan orang baik, amanah, tegas, dan juga memperhatikan kelestarian budaya Indonesia. 
+Masyarakat Adat Madura sangat berharap Pak Ganjar Pranowo bisa terpilih pada Pemilu 2024 dan menjadi Presiden Republik Indonesia😍❤️🇮🇩
+ 🇮🇩</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Indonesia Ma'ruf Amin mengukuhkan Gubernur Jawa Tengah (Jateng) Ganjar Pranowo menjadi ketua Komite Daerah Ekonomi dan Keuangan Syariah (KDEKS) Provinsi Jateng. </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Gue gak nyangka klo Pak Ganjar Pranowo menjadi pengkhianat Presiden Pak Jokowi,masih ada Pak  ,semoga telunjuk Pak Jokowi menunjuk ke Pak Prabowo sebagai penerus Beliau tahun 2024 dan Wapresnya Pak  ,🙏❤️🇮🇩 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sikap Ganjar Pranowo sejak awal murni atas dasar kemanuasiaan dan menjaga komitmen dukungan kepada Presiden
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CNN INDONESIA, NEWS ROOM-RIGHT ANGLE : 
+Selasa, 4 April 2023 - 16.46 WIB
+DATANG DGN PENUH ANTUSIAS, RIBUAN MASYARAKAT SERBU ZONA RAMADHAN GANJAR PRANOWO DI PASURUAN
+Pasuruan, Jawa Timur
+"Harapannya, Pak Ganjar kdepannya bs mnjadi Presiden Indonesia," ucap Yohana
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gubernur Jawa Tengah Ganjar Pranowo mendampingi Wakil Presiden Ma'ruf Amin untuk salat Isya dan Tarawih berjemaah di Masjid Raya Baiturrahman, Semarang.
+   </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tidak saya pilih Ganjar Pranowo apabila dia calon Presiden</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tapi jujur saya masih berharap ada konsolidasi politik yg baik antara Presiden Jokowi dengan saudara Ganjar Pranowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Tidak saya pilih Ganjar Pranowo apabila dia calon Presiden. Titik</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gubernur Jawa Tengah Ganjar Pranowo mendampingi Wakil Presiden Ma'ruf Amin utk salat Isya dan Tarawih berjemaah di Masjid Raya Baiturrahman, Semarang.
+Selain itu, Wakil Presiden jg ingin melihat wajah baru Masjid Raya Baiturrahman pasca revitalisasi besar-besaran
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lebih lanjut, Agung meyakini Presiden Joko Widodo (Jokowi) bakal menimbang ulang dukungan politiknya kepada Ganjar Pranowo jika terlalu sering terlibat dalam wacana kontroversi di publik.
+  Prabowo Subianto</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganjar Pranowo, Capres Terbaik, Dapat Dipercaya, Anugerah Tuhan Yang Maha Kuasa bagi Bangsa, Presiden RI di 2024 </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tak cocok jadi presiden,jelas tak akan tegas.masalah kelompok2x intoleran tak akan ada solusi dan akan makin besar.indonesia butuh yg tegas.ganjar Pranowo akan tegas,kelompok2x intoleran dll akan dibasmi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kalau ada yang meminta MAAF saya wajib memberikan MAAF !!!!!!
+Tapi saya juga mempunyai HAK untuk tidak memilih Pak GANJAR PRANOWO dan PDIP di tahun 2024.
+Saya GOLPUT aja......
+Karena sudah tidak ada calon Presiden yang bisa saya percaya  !!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Setelah heboh penolakan GP terhadap Israel di Piala Dunia U20 apakah bapak ibu masih memilih Ganjar Pranowo sebagai Presiden 2024 ??</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beda dengan Pernyataan Presiden Jokowi, Ganjar Pranowo Sebut Tidak Pernah Tanda Tangan Soal Kesediaan Jadi Tuan Rumah Piala Dunia U-20 </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganjar Pranowo Akui Sudah Sampaikan Penolakannya Terhadap Israel Lewat Beberapa ‘Pintu’ Presiden Jokowi </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sy usulkan Pak Ganjar pranowo jadi Presiden Palestina sj...</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganjar Pranowo Presiden 2024, aamin.
+Amanda Begal Windah Moana Demokrat Doge Morning </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ganjar sudah melakukan yang terbaik (menurut dirinya).
+Tapi kita para Voter melihat ada Gubernur melakukan Pembangkangan Perintah atasannya, Presiden.
+Dan itu menjadi fakta : Ganjar Pranowo BUKAN SAMA DENGAN Pak Jokowi.
+Artinya,  Program Jokowi belum tentu diteruskan oleh dia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tidak saya Pilih GANJAR PRANOWO jadi Presiden. Kalau Sama Bang Adian Napitupulu saya salud. Kali ini saya tidak pilih Ganjar Pranowo di Pilpres nanti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Presiden perintahkan  Menpora : Piala Dunia jalan terus , pisahkan olahraga Dan politik 
+Ganjar Pranowo : menolak timnas Israel yg lolos kualifikasi secara fair. Olahraga Dan politik tidak dipisahkan .
+kesimpulan : 
+Ganjar membangkang Dan antitesa  Itukah teman?</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wakil Presiden Ma'ruf Amin didampingi oleh Gubernur Jawa Tengah Ganjar Pranowo dan Wali Kota Semarang Hevearita Gunaryanti Rahayu meninjau MPP (Mall Pelayanan Publik) Kota Semarang di Mall Pelayanan Publik Kota Semarang.
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganjar Pranowo berhasil turunkan angka kemiskinan ekstrim di Jateng dan di apresiasi Wakil Presiden Indonesia.
+         </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
